--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>711622.1463287683</v>
+        <v>714741.4120896357</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9588818.026584448</v>
+        <v>9588818.026584439</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8044890.423179717</v>
+        <v>8044890.423179718</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.40229248514491</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>75.17489648358271</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -792,19 +792,19 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="V3" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>43.0083255943737</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U4" t="n">
-        <v>161.8294550022488</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="W4" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>198.8537130303355</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>51.19038065401886</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>198.8537130303351</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>198.8537130303351</v>
+        <v>83.25884671833909</v>
       </c>
       <c r="I5" t="n">
         <v>123.9599697831002</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>8.902756580943617</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.8824903850721</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.8537130303351</v>
+        <v>198.8537130303355</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.29836838907134</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>42.05422735326709</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.6391821499526</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.05664312418097</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.60893038465254</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.3806416140498</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.3250534643339</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>198.8537130303355</v>
       </c>
       <c r="V6" t="n">
-        <v>198.8537130303351</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>198.8537130303351</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>198.8537130303355</v>
       </c>
     </row>
     <row r="7">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>31.2219810080341</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9843503927711</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.2773258852345</v>
       </c>
       <c r="I7" t="n">
-        <v>50.66444338141464</v>
+        <v>125.1783965773049</v>
       </c>
       <c r="J7" t="n">
-        <v>22.19051224255321</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.870594133973484</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.0316926108849</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.8537130303351</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>198.8537130303351</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,64 +1133,64 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>143.5013688276108</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T8" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U8" t="n">
+        <v>251.1481678782825</v>
+      </c>
+      <c r="V8" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="F8" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="G8" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="H8" t="n">
-        <v>232.2791855053265</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>107.297782492468</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>129.7698668619576</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>10.9951272714166</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>62.02676219009491</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>89.12985772078963</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.15709156685702</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>144.1798702554564</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>89.12985772078918</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>82.01816637160786</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.045250128462</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>33.76491988322906</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>104.7965952039006</v>
+        <v>1.781160222249209</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>89.12985772078963</v>
+        <v>349.7888056987309</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>117.8315788517235</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3066000448042</v>
@@ -2020,7 +2020,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I19" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>83.42862381542372</v>
       </c>
       <c r="S19" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>22.43608105251057</v>
       </c>
       <c r="F20" t="n">
-        <v>124.3601833345879</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>65.70991267247049</v>
@@ -2132,19 +2132,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>120.3332554667404</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>69.71950520674586</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2271541212006</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>106.5908076132626</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>326.3042494617317</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.3387326418233</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.781160222249139</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
         <v>194.6624603617375</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>82.01816637160744</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>266.036409692531</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>55.94174219837174</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.7486959972119</v>
@@ -2770,16 +2770,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>151.7222027933566</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>209.6112011012754</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>188.9034590372343</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>66.77595716186151</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.781160222249139</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>85.52226336418052</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>43.93598676617227</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>101.428340300521</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>196.4017961483597</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>143.5214382119706</v>
+        <v>105.1352341493943</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247049</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705013</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>122.6942204073862</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
         <v>104.7965952039006</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>127.4895151583762</v>
+        <v>346.6437410991178</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>175.6443957837139</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3740,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>250.8345048551451</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>314.1219662727563</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>65.8828191912126</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
@@ -3916,7 +3916,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>144.8586974472232</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>307.4270694733921</v>
+        <v>340.1751078492517</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.7486959972119</v>
@@ -4192,16 +4192,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>202.3757048449409</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>271.9386010851434</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158254</v>
+        <v>371.2627786323102</v>
       </c>
       <c r="C2" t="n">
         <v>181.8429936158254</v>
       </c>
       <c r="D2" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8429936158254</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
         <v>15.00204697330559</v>
@@ -4361,19 +4361,19 @@
         <v>750.1023486652797</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652797</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V2" t="n">
         <v>560.6825636487949</v>
       </c>
       <c r="W2" t="n">
-        <v>371.2627786323102</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X2" t="n">
-        <v>181.8429936158254</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158254</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>192.7966468059545</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4419,7 +4419,7 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476349</v>
@@ -4431,28 +4431,28 @@
         <v>750.1023486652797</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>722.9192922843278</v>
       </c>
       <c r="S3" t="n">
-        <v>598.819273219876</v>
+        <v>571.636216838924</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033912</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="U3" t="n">
-        <v>219.9797031869064</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="V3" t="n">
-        <v>30.55991817042167</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="W3" t="n">
-        <v>30.55991817042167</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="X3" t="n">
-        <v>30.55991817042167</v>
+        <v>382.2164318224393</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55991817042167</v>
+        <v>192.7966468059545</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>82.11526303381524</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>270.0335799401896</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777541</v>
+        <v>471.6341805242517</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143043</v>
+        <v>634.3723839608019</v>
       </c>
       <c r="P4" t="n">
         <v>750.1023486652797</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846274</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846274</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846274</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681426</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="U4" t="n">
-        <v>393.8416170062752</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897904</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>615.9383389575116</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>426.5185539410269</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>237.0987689245421</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>594.5525157270624</v>
+        <v>426.0825692967449</v>
       </c>
       <c r="C5" t="n">
-        <v>594.5525157270624</v>
+        <v>426.0825692967449</v>
       </c>
       <c r="D5" t="n">
-        <v>594.5525157270624</v>
+        <v>225.2202329024665</v>
       </c>
       <c r="E5" t="n">
-        <v>594.5525157270624</v>
+        <v>225.2202329024665</v>
       </c>
       <c r="F5" t="n">
-        <v>542.8450605209828</v>
+        <v>225.2202329024665</v>
       </c>
       <c r="G5" t="n">
-        <v>341.9827241267049</v>
+        <v>225.2202329024665</v>
       </c>
       <c r="H5" t="n">
         <v>141.120387732427</v>
       </c>
       <c r="I5" t="n">
-        <v>15.90829704242681</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="J5" t="n">
-        <v>25.23393687525049</v>
+        <v>25.23393687525027</v>
       </c>
       <c r="K5" t="n">
-        <v>89.94917180788894</v>
+        <v>89.94917180788889</v>
       </c>
       <c r="L5" t="n">
-        <v>207.1359051122858</v>
+        <v>207.1359051122861</v>
       </c>
       <c r="M5" t="n">
-        <v>369.1981628237108</v>
+        <v>369.1981628237115</v>
       </c>
       <c r="N5" t="n">
-        <v>538.496565674614</v>
+        <v>538.4965656746148</v>
       </c>
       <c r="O5" t="n">
-        <v>685.0249855017724</v>
+        <v>685.0249855017739</v>
       </c>
       <c r="P5" t="n">
-        <v>775.5826009104921</v>
+        <v>775.5826009104939</v>
       </c>
       <c r="Q5" t="n">
-        <v>795.4148521213403</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="R5" t="n">
-        <v>795.4148521213403</v>
+        <v>786.4221687062476</v>
       </c>
       <c r="S5" t="n">
-        <v>795.4148521213403</v>
+        <v>626.9449056910232</v>
       </c>
       <c r="T5" t="n">
-        <v>795.4148521213403</v>
+        <v>626.9449056910232</v>
       </c>
       <c r="U5" t="n">
-        <v>795.4148521213403</v>
+        <v>626.9449056910232</v>
       </c>
       <c r="V5" t="n">
-        <v>795.4148521213403</v>
+        <v>626.9449056910232</v>
       </c>
       <c r="W5" t="n">
-        <v>795.4148521213403</v>
+        <v>626.9449056910232</v>
       </c>
       <c r="X5" t="n">
-        <v>795.4148521213403</v>
+        <v>626.9449056910232</v>
       </c>
       <c r="Y5" t="n">
-        <v>594.5525157270624</v>
+        <v>426.0825692967449</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>367.8225728836405</v>
+        <v>45.50260854653931</v>
       </c>
       <c r="C6" t="n">
-        <v>367.8225728836405</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="D6" t="n">
-        <v>367.8225728836405</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="E6" t="n">
-        <v>208.585117878185</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="F6" t="n">
-        <v>166.1061003496324</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="G6" t="n">
-        <v>166.1061003496324</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="H6" t="n">
-        <v>64.45036080422577</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="I6" t="n">
-        <v>15.90829704242681</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="J6" t="n">
-        <v>30.23395463335643</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="K6" t="n">
-        <v>85.71924314042285</v>
+        <v>71.39358554949341</v>
       </c>
       <c r="L6" t="n">
-        <v>206.648602003221</v>
+        <v>192.3229444122917</v>
       </c>
       <c r="M6" t="n">
-        <v>367.1243280990076</v>
+        <v>352.7986705080786</v>
       </c>
       <c r="N6" t="n">
-        <v>546.2560140698711</v>
+        <v>531.9303564789423</v>
       </c>
       <c r="O6" t="n">
-        <v>687.9067153190348</v>
+        <v>673.5810577281063</v>
       </c>
       <c r="P6" t="n">
-        <v>782.2608249746281</v>
+        <v>767.9351673836999</v>
       </c>
       <c r="Q6" t="n">
-        <v>795.4148521213403</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="R6" t="n">
-        <v>769.5472456721964</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="S6" t="n">
-        <v>769.5472456721964</v>
+        <v>644.5253151374535</v>
       </c>
       <c r="T6" t="n">
-        <v>769.5472456721964</v>
+        <v>447.227281335096</v>
       </c>
       <c r="U6" t="n">
-        <v>769.5472456721964</v>
+        <v>246.3649449408177</v>
       </c>
       <c r="V6" t="n">
-        <v>568.6849092779185</v>
+        <v>246.3649449408177</v>
       </c>
       <c r="W6" t="n">
-        <v>367.8225728836405</v>
+        <v>246.3649449408177</v>
       </c>
       <c r="X6" t="n">
-        <v>367.8225728836405</v>
+        <v>246.3649449408177</v>
       </c>
       <c r="Y6" t="n">
-        <v>367.8225728836405</v>
+        <v>45.50260854653931</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>258.4353442369679</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="C7" t="n">
-        <v>89.49916130906101</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="D7" t="n">
-        <v>89.49916130906101</v>
+        <v>645.2982127090064</v>
       </c>
       <c r="E7" t="n">
-        <v>89.49916130906101</v>
+        <v>497.3851191266133</v>
       </c>
       <c r="F7" t="n">
-        <v>89.49916130906101</v>
+        <v>465.8477645730435</v>
       </c>
       <c r="G7" t="n">
-        <v>89.49916130906101</v>
+        <v>297.1767035702444</v>
       </c>
       <c r="H7" t="n">
-        <v>89.49916130906101</v>
+        <v>142.3511218679873</v>
       </c>
       <c r="I7" t="n">
-        <v>38.32295587328864</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="J7" t="n">
-        <v>15.90829704242681</v>
+        <v>15.90829704242684</v>
       </c>
       <c r="K7" t="n">
-        <v>63.14426854778867</v>
+        <v>109.6439637682008</v>
       </c>
       <c r="L7" t="n">
-        <v>238.6200844992098</v>
+        <v>285.119779719622</v>
       </c>
       <c r="M7" t="n">
-        <v>434.0238519896072</v>
+        <v>480.5235472100196</v>
       </c>
       <c r="N7" t="n">
-        <v>630.2159710598314</v>
+        <v>630.2159710598331</v>
       </c>
       <c r="O7" t="n">
-        <v>795.4148521213403</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="P7" t="n">
-        <v>795.4148521213403</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="Q7" t="n">
-        <v>793.5253630971247</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="R7" t="n">
-        <v>660.1600170255238</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="S7" t="n">
-        <v>459.2976806312458</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="T7" t="n">
-        <v>459.2976806312458</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="U7" t="n">
-        <v>459.2976806312458</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="V7" t="n">
-        <v>459.2976806312458</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="W7" t="n">
-        <v>258.4353442369679</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="X7" t="n">
-        <v>258.4353442369679</v>
+        <v>795.4148521213422</v>
       </c>
       <c r="Y7" t="n">
-        <v>258.4353442369679</v>
+        <v>795.4148521213422</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="C8" t="n">
-        <v>1054.855520006025</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D8" t="n">
-        <v>1054.855520006025</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E8" t="n">
-        <v>788.4778634388466</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F8" t="n">
-        <v>522.1002068716687</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G8" t="n">
-        <v>255.7225503044907</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H8" t="n">
         <v>21.09711040012049</v>
@@ -4805,19 +4805,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K8" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P8" t="n">
         <v>1011.026904601763</v>
@@ -4829,25 +4829,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U8" t="n">
-        <v>1054.855520006025</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V8" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="W8" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="X8" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="Y8" t="n">
-        <v>1054.855520006025</v>
+        <v>166.0479880037678</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.4787088773609</v>
+        <v>501.322152659818</v>
       </c>
       <c r="C9" t="n">
-        <v>129.4787088773609</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D9" t="n">
-        <v>129.4787088773609</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E9" t="n">
-        <v>129.4787088773609</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F9" t="n">
         <v>21.09711040012049</v>
@@ -4884,22 +4884,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957465</v>
+        <v>100.991389695173</v>
       </c>
       <c r="L9" t="n">
-        <v>242.5255548298713</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M9" t="n">
-        <v>433.1262439263951</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N9" t="n">
-        <v>643.1802110290001</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O9" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P9" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
         <v>1054.855520006025</v>
@@ -4914,19 +4914,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U9" t="n">
-        <v>826.7196740428381</v>
+        <v>923.7748464080876</v>
       </c>
       <c r="V9" t="n">
-        <v>591.5675658110954</v>
+        <v>923.7748464080876</v>
       </c>
       <c r="W9" t="n">
-        <v>337.3302090828938</v>
+        <v>669.537489679886</v>
       </c>
       <c r="X9" t="n">
-        <v>129.4787088773609</v>
+        <v>669.537489679886</v>
       </c>
       <c r="Y9" t="n">
-        <v>129.4787088773609</v>
+        <v>669.537489679886</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>327.006340643471</v>
+        <v>873.2070551757848</v>
       </c>
       <c r="C10" t="n">
-        <v>327.006340643471</v>
+        <v>704.2708722478779</v>
       </c>
       <c r="D10" t="n">
-        <v>315.900151480424</v>
+        <v>554.1542328355422</v>
       </c>
       <c r="E10" t="n">
-        <v>167.9870578980309</v>
+        <v>406.2411392531491</v>
       </c>
       <c r="F10" t="n">
-        <v>21.09711040012049</v>
+        <v>406.2411392531491</v>
       </c>
       <c r="G10" t="n">
-        <v>21.09711040012049</v>
+        <v>237.6717786081525</v>
       </c>
       <c r="H10" t="n">
-        <v>21.09711040012049</v>
+        <v>83.7504055416305</v>
       </c>
       <c r="I10" t="n">
         <v>21.09711040012049</v>
@@ -4963,19 +4963,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M10" t="n">
         <v>527.7368878375335</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P10" t="n">
         <v>1048.360858816803</v>
@@ -4987,25 +4987,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T10" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U10" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V10" t="n">
-        <v>593.383997210649</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W10" t="n">
-        <v>327.006340643471</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X10" t="n">
-        <v>327.006340643471</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y10" t="n">
-        <v>327.006340643471</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.276945881932</v>
+        <v>1245.791627622476</v>
       </c>
       <c r="C11" t="n">
-        <v>51.24678656800311</v>
+        <v>1245.791627622476</v>
       </c>
       <c r="D11" t="n">
-        <v>51.24678656800311</v>
+        <v>1245.791627622476</v>
       </c>
       <c r="E11" t="n">
-        <v>51.24678656800311</v>
+        <v>1245.791627622476</v>
       </c>
       <c r="F11" t="n">
-        <v>51.24678656800311</v>
+        <v>834.8057228328682</v>
       </c>
       <c r="G11" t="n">
-        <v>51.24678656800311</v>
+        <v>419.1009725571571</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800311</v>
+        <v>115.0418285547274</v>
       </c>
       <c r="I11" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281609</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
         <v>1656.671415230817</v>
@@ -5066,25 +5066,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T11" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U11" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V11" t="n">
-        <v>1644.250531453059</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W11" t="n">
-        <v>1291.481876182945</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X11" t="n">
-        <v>918.0161179218655</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y11" t="n">
-        <v>527.8767859460538</v>
+        <v>1632.391467686597</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G12" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I12" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K12" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L12" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M12" t="n">
-        <v>1352.031492328576</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N12" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O12" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P12" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q12" t="n">
         <v>2562.339328400155</v>
@@ -5151,7 +5151,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V12" t="n">
         <v>1769.368633815395</v>
@@ -5160,7 +5160,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y12" t="n">
         <v>1099.519478116707</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.4114230577909</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C13" t="n">
-        <v>808.4114230577909</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D13" t="n">
-        <v>662.7751904765217</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E13" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F13" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G13" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H13" t="n">
         <v>51.24678656800311</v>
@@ -5197,52 +5197,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J13" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q13" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>1244.744376093917</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V13" t="n">
-        <v>990.0598878880306</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W13" t="n">
-        <v>990.0598878880306</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X13" t="n">
-        <v>990.0598878880306</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.0598878880306</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.2769458819316</v>
+        <v>861.3216348137591</v>
       </c>
       <c r="C14" t="n">
-        <v>51.24678656800311</v>
+        <v>492.3591178733474</v>
       </c>
       <c r="D14" t="n">
-        <v>51.24678656800311</v>
+        <v>134.0934192665969</v>
       </c>
       <c r="E14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I14" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L14" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S14" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T14" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U14" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V14" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W14" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X14" t="n">
-        <v>918.0161179218651</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y14" t="n">
-        <v>527.8767859460534</v>
+        <v>861.3216348137591</v>
       </c>
     </row>
     <row r="15">
@@ -5352,10 +5352,10 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I15" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J15" t="n">
-        <v>143.6627691908469</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
         <v>590.2049751143496</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.1371474485136</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="C16" t="n">
-        <v>656.2009645206067</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="D16" t="n">
-        <v>506.0843251082709</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="E16" t="n">
-        <v>471.9783454282416</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="F16" t="n">
-        <v>325.0883979303312</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="G16" t="n">
-        <v>157.1019332386098</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="H16" t="n">
-        <v>157.1019332386098</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="I16" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J16" t="n">
         <v>76.71595955312198</v>
@@ -5470,16 +5470,16 @@
         <v>825.1371474485136</v>
       </c>
       <c r="V16" t="n">
-        <v>825.1371474485136</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W16" t="n">
-        <v>825.1371474485136</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X16" t="n">
-        <v>825.1371474485136</v>
+        <v>53.04593830764878</v>
       </c>
       <c r="Y16" t="n">
-        <v>825.1371474485136</v>
+        <v>53.04593830764878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.276945881932</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="C17" t="n">
-        <v>51.24678656800311</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D17" t="n">
-        <v>51.24678656800311</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E17" t="n">
-        <v>51.24678656800311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I17" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J17" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K17" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L17" t="n">
         <v>795.7553530872915</v>
@@ -5531,13 +5531,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R17" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S17" t="n">
         <v>2437.640120926626</v>
@@ -5546,19 +5546,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U17" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V17" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W17" t="n">
-        <v>1291.481876182945</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X17" t="n">
-        <v>918.0161179218655</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y17" t="n">
-        <v>527.8767859460538</v>
+        <v>1975.313418796631</v>
       </c>
     </row>
     <row r="18">
@@ -5574,49 +5574,49 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1446891756901</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H18" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I18" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J18" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K18" t="n">
-        <v>614.543024838023</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L18" t="n">
-        <v>909.2465818694948</v>
+        <v>884.9085321458216</v>
       </c>
       <c r="M18" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N18" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O18" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P18" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q18" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R18" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S18" t="n">
         <v>2426.617474780096</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>740.7621864691408</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="C19" t="n">
-        <v>740.7621864691408</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="D19" t="n">
-        <v>740.7621864691408</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="E19" t="n">
-        <v>592.8490928867477</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F19" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G19" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H19" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I19" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J19" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L19" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M19" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N19" t="n">
         <v>1123.088724245823</v>
@@ -5692,31 +5692,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R19" t="n">
-        <v>1636.446120074497</v>
+        <v>1552.174782887201</v>
       </c>
       <c r="S19" t="n">
-        <v>1439.817372234359</v>
+        <v>1355.546035047062</v>
       </c>
       <c r="T19" t="n">
-        <v>1439.817372234359</v>
+        <v>1132.567554241798</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.817372234359</v>
+        <v>843.4492167456353</v>
       </c>
       <c r="V19" t="n">
-        <v>1439.817372234359</v>
+        <v>588.7647285397485</v>
       </c>
       <c r="W19" t="n">
-        <v>1150.400202197398</v>
+        <v>588.7647285397485</v>
       </c>
       <c r="X19" t="n">
-        <v>922.4106512993806</v>
+        <v>588.7647285397485</v>
       </c>
       <c r="Y19" t="n">
-        <v>922.4106512993806</v>
+        <v>367.9721493962184</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1321.26637541962</v>
+        <v>867.511359413126</v>
       </c>
       <c r="C20" t="n">
-        <v>1321.26637541962</v>
+        <v>498.5488424727143</v>
       </c>
       <c r="D20" t="n">
-        <v>963.0006768128696</v>
+        <v>140.2831438659638</v>
       </c>
       <c r="E20" t="n">
-        <v>963.0006768128696</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F20" t="n">
-        <v>837.3843300102556</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G20" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H20" t="n">
         <v>117.6204357321147</v>
@@ -5780,22 +5780,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T20" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U20" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V20" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W20" t="n">
-        <v>2084.871465656512</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X20" t="n">
-        <v>1711.405707395432</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y20" t="n">
-        <v>1321.26637541962</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J21" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>299.264883884485</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L21" t="n">
-        <v>593.9684409159566</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M21" t="n">
-        <v>957.2304598751767</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.515588472122</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O21" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P21" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q21" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R21" t="n">
         <v>2562.339328400155</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>172.7955294637004</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="C22" t="n">
-        <v>51.24678656800311</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="D22" t="n">
-        <v>51.24678656800311</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="E22" t="n">
-        <v>51.24678656800311</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="F22" t="n">
-        <v>51.24678656800311</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="G22" t="n">
-        <v>51.24678656800311</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="H22" t="n">
-        <v>51.24678656800311</v>
+        <v>121.6705292010797</v>
       </c>
       <c r="I22" t="n">
         <v>51.24678656800311</v>
@@ -5932,28 +5932,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S22" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T22" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U22" t="n">
-        <v>1347.327782578335</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V22" t="n">
-        <v>1092.643294372448</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W22" t="n">
-        <v>803.2261243354876</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X22" t="n">
-        <v>575.2365734374703</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y22" t="n">
-        <v>354.4439942939401</v>
+        <v>121.6705292010797</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>527.8767859460538</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C23" t="n">
-        <v>158.9142690056421</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D23" t="n">
-        <v>51.24678656800311</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E23" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F23" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G23" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H23" t="n">
         <v>51.24678656800311</v>
@@ -5993,10 +5993,10 @@
         <v>442.5171852816082</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
         <v>1656.671415230817</v>
@@ -6014,25 +6014,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V23" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W23" t="n">
-        <v>1291.481876182945</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X23" t="n">
-        <v>918.0161179218655</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y23" t="n">
-        <v>527.8767859460538</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L24" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M24" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N24" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O24" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P24" t="n">
         <v>2214.708848710445</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
       <c r="C25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
       <c r="D25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
       <c r="E25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
       <c r="F25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
       <c r="G25" t="n">
-        <v>51.24678656800311</v>
+        <v>978.939146633307</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800311</v>
+        <v>978.939146633307</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L25" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N25" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O25" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P25" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S25" t="n">
-        <v>1439.817372234359</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T25" t="n">
-        <v>1216.838891429094</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U25" t="n">
-        <v>927.7205539329318</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V25" t="n">
-        <v>673.036065727045</v>
+        <v>1496.345867568285</v>
       </c>
       <c r="W25" t="n">
-        <v>383.6188956900843</v>
+        <v>1206.928697531324</v>
       </c>
       <c r="X25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.629344792067</v>
+        <v>978.939146633307</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1059.365742829028</v>
+        <v>861.3216348137587</v>
       </c>
       <c r="C26" t="n">
-        <v>690.4032258886161</v>
+        <v>492.359117873347</v>
       </c>
       <c r="D26" t="n">
-        <v>690.4032258886161</v>
+        <v>134.0934192665965</v>
       </c>
       <c r="E26" t="n">
-        <v>690.4032258886161</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F26" t="n">
-        <v>690.4032258886161</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G26" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I26" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L26" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M26" t="n">
         <v>1220.470313923562</v>
@@ -6257,19 +6257,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W26" t="n">
-        <v>2209.570673130041</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X26" t="n">
-        <v>1836.104914868961</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y26" t="n">
-        <v>1445.96558289315</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800339</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370161</v>
+        <v>114.5432626034355</v>
       </c>
       <c r="K27" t="n">
-        <v>614.5430248380226</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L27" t="n">
-        <v>909.2465818694943</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M27" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.79372942566</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P27" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q27" t="n">
         <v>2562.339328400155</v>
@@ -6342,7 +6342,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
         <v>1307.279776881661</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.137147448514</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C28" t="n">
-        <v>825.137147448514</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D28" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E28" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F28" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G28" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I28" t="n">
         <v>51.24678656800311</v>
@@ -6406,28 +6406,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U28" t="n">
-        <v>825.137147448514</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V28" t="n">
-        <v>825.137147448514</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W28" t="n">
-        <v>825.137147448514</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X28" t="n">
-        <v>825.137147448514</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y28" t="n">
-        <v>825.137147448514</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>990.2034880760496</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C29" t="n">
-        <v>621.2409711356379</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D29" t="n">
-        <v>262.9752725288874</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E29" t="n">
-        <v>51.24678656800311</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F29" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G29" t="n">
         <v>51.24678656800311</v>
@@ -6464,7 +6464,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L29" t="n">
         <v>795.7553530872915</v>
@@ -6488,25 +6488,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2437.640120926626</v>
+        <v>2371.52775361507</v>
       </c>
       <c r="V29" t="n">
-        <v>2106.577233583055</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="W29" t="n">
-        <v>1753.808578312941</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="X29" t="n">
-        <v>1380.342820051861</v>
+        <v>2040.4648662715</v>
       </c>
       <c r="Y29" t="n">
-        <v>990.2034880760496</v>
+        <v>1650.325534295688</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6522,43 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E30" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F30" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L30" t="n">
-        <v>884.9085321458217</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M30" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N30" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O30" t="n">
-        <v>1967.526114878149</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P30" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q30" t="n">
         <v>2538.001278676482</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>977.1399948936614</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C31" t="n">
-        <v>977.1399948936614</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D31" t="n">
-        <v>977.1399948936614</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E31" t="n">
-        <v>977.1399948936614</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F31" t="n">
-        <v>977.1399948936614</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G31" t="n">
-        <v>977.1399948936614</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H31" t="n">
-        <v>977.1399948936614</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I31" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K31" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M31" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N31" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P31" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q31" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.127174075599</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.148693270334</v>
+        <v>1466.412251810422</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.030355774172</v>
+        <v>1177.293914314259</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.345867568285</v>
+        <v>922.6094261083724</v>
       </c>
       <c r="W31" t="n">
-        <v>1206.928697531324</v>
+        <v>922.6094261083724</v>
       </c>
       <c r="X31" t="n">
-        <v>978.939146633307</v>
+        <v>694.6198752103551</v>
       </c>
       <c r="Y31" t="n">
-        <v>977.1399948936614</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>864.8611267254487</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="C32" t="n">
-        <v>495.898609785037</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D32" t="n">
-        <v>137.6329111782865</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E32" t="n">
-        <v>51.24678656800311</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800311</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L32" t="n">
         <v>795.7553530872915</v>
@@ -6713,37 +6713,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400155</v>
+        <v>2393.260336314331</v>
       </c>
       <c r="U32" t="n">
-        <v>2308.758267664335</v>
+        <v>2393.260336314331</v>
       </c>
       <c r="V32" t="n">
-        <v>1977.695380320764</v>
+        <v>2393.260336314331</v>
       </c>
       <c r="W32" t="n">
-        <v>1624.92672505065</v>
+        <v>2393.260336314331</v>
       </c>
       <c r="X32" t="n">
-        <v>1251.46096678957</v>
+        <v>2393.260336314331</v>
       </c>
       <c r="Y32" t="n">
-        <v>1251.46096678957</v>
+        <v>2003.121004338519</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G33" t="n">
         <v>165.443278618252</v>
@@ -6774,34 +6774,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J33" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L33" t="n">
-        <v>884.9085321458213</v>
+        <v>638.0146769637288</v>
       </c>
       <c r="M33" t="n">
-        <v>1248.170551105041</v>
+        <v>1001.276695922949</v>
       </c>
       <c r="N33" t="n">
         <v>1635.455679701987</v>
       </c>
       <c r="O33" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P33" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6819,7 +6819,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y33" t="n">
         <v>1099.519478116707</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.2127024906389</v>
+        <v>1863.284142634938</v>
       </c>
       <c r="C34" t="n">
-        <v>349.2765195627319</v>
+        <v>1694.347959707031</v>
       </c>
       <c r="D34" t="n">
-        <v>199.1598801503962</v>
+        <v>1544.231320294696</v>
       </c>
       <c r="E34" t="n">
-        <v>51.24678656800311</v>
+        <v>1396.318226712302</v>
       </c>
       <c r="F34" t="n">
-        <v>51.24678656800311</v>
+        <v>1396.318226712302</v>
       </c>
       <c r="G34" t="n">
-        <v>51.24678656800311</v>
+        <v>1228.331762020581</v>
       </c>
       <c r="H34" t="n">
-        <v>51.24678656800311</v>
+        <v>1079.592863884087</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936619</v>
       </c>
       <c r="J34" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K34" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L34" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M34" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N34" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O34" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P34" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U34" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V34" t="n">
-        <v>1438.060467399387</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W34" t="n">
-        <v>1148.643297362426</v>
+        <v>2272.922158363195</v>
       </c>
       <c r="X34" t="n">
-        <v>920.6537464644088</v>
+        <v>2044.932607465178</v>
       </c>
       <c r="Y34" t="n">
-        <v>699.8611673208786</v>
+        <v>2044.932607465178</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1059.365742829028</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C35" t="n">
-        <v>1059.365742829028</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D35" t="n">
-        <v>1059.365742829028</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="E35" t="n">
-        <v>673.5774902307835</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="F35" t="n">
-        <v>262.5915854411759</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="G35" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H35" t="n">
         <v>117.6204357321147</v>
@@ -6938,10 +6938,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6962,25 +6962,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V35" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W35" t="n">
-        <v>2209.570673130041</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X35" t="n">
-        <v>1836.104914868961</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y35" t="n">
-        <v>1445.96558289315</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800311</v>
@@ -7017,19 +7017,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K36" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L36" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M36" t="n">
-        <v>956.284402521753</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O36" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P36" t="n">
         <v>2447.023413292609</v>
@@ -7053,7 +7053,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
         <v>1307.279776881661</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.0354892056666</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C37" t="n">
-        <v>281.0354892056666</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D37" t="n">
-        <v>281.0354892056666</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E37" t="n">
-        <v>281.0354892056666</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F37" t="n">
-        <v>281.0354892056666</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G37" t="n">
-        <v>281.0354892056666</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H37" t="n">
         <v>157.1019332386098</v>
@@ -7117,28 +7117,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R37" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>570.4526592426272</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W37" t="n">
-        <v>281.0354892056666</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X37" t="n">
-        <v>281.0354892056666</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y37" t="n">
-        <v>281.0354892056666</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1412.134398099142</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C38" t="n">
-        <v>1043.17188115873</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="D38" t="n">
-        <v>1043.17188115873</v>
+        <v>1091.239376198089</v>
       </c>
       <c r="E38" t="n">
-        <v>657.3836285604862</v>
+        <v>705.4511235998448</v>
       </c>
       <c r="F38" t="n">
-        <v>246.3977237708786</v>
+        <v>705.4511235998448</v>
       </c>
       <c r="G38" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H38" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I38" t="n">
         <v>51.24678656800311</v>
@@ -7211,13 +7211,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X38" t="n">
-        <v>2188.873570139076</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1798.734238163264</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="39">
@@ -7233,40 +7233,40 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E39" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F39" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800339</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370164</v>
       </c>
       <c r="K39" t="n">
-        <v>560.1394111735141</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L39" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M39" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N39" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O39" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P39" t="n">
         <v>2239.046898434119</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C40" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D40" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E40" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G40" t="n">
         <v>51.24678656800311</v>
@@ -7357,25 +7357,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U40" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V40" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W40" t="n">
-        <v>1463.519709552058</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X40" t="n">
-        <v>1235.53015865404</v>
+        <v>410.3138329979538</v>
       </c>
       <c r="Y40" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1059.365742829028</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="C41" t="n">
-        <v>690.4032258886161</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="D41" t="n">
-        <v>690.4032258886161</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="E41" t="n">
-        <v>304.6149732903719</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F41" t="n">
-        <v>304.6149732903719</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H41" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
         <v>51.24678656800311</v>
@@ -7412,10 +7412,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L41" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M41" t="n">
         <v>1220.470313923562</v>
@@ -7439,22 +7439,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V41" t="n">
-        <v>2562.339328400155</v>
+        <v>2036.298771578953</v>
       </c>
       <c r="W41" t="n">
-        <v>2209.570673130041</v>
+        <v>1683.530116308839</v>
       </c>
       <c r="X41" t="n">
-        <v>1836.104914868961</v>
+        <v>1310.064358047759</v>
       </c>
       <c r="Y41" t="n">
-        <v>1445.96558289315</v>
+        <v>919.9250260719477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D42" t="n">
         <v>607.9167021542605</v>
@@ -7476,40 +7476,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G42" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L42" t="n">
-        <v>979.6730931919906</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M42" t="n">
-        <v>1342.935112151211</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.432194560477</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O42" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7527,7 +7527,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X42" t="n">
         <v>1307.279776881661</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.683159487371</v>
+        <v>582.4335451919575</v>
       </c>
       <c r="C43" t="n">
-        <v>918.7469765594642</v>
+        <v>582.4335451919575</v>
       </c>
       <c r="D43" t="n">
-        <v>768.6303371471284</v>
+        <v>582.4335451919575</v>
       </c>
       <c r="E43" t="n">
-        <v>620.7172435647353</v>
+        <v>434.5204516095644</v>
       </c>
       <c r="F43" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G43" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H43" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
         <v>51.24678656800311</v>
@@ -7600,19 +7600,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U43" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V43" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W43" t="n">
-        <v>1636.446120074497</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X43" t="n">
-        <v>1490.124203461141</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="Y43" t="n">
-        <v>1269.331624317611</v>
+        <v>582.4335451919575</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1158.553337363322</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="C44" t="n">
-        <v>1158.553337363322</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="D44" t="n">
-        <v>1158.553337363322</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="E44" t="n">
-        <v>772.7650847650775</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="F44" t="n">
-        <v>361.77917997547</v>
+        <v>394.8580066177523</v>
       </c>
       <c r="G44" t="n">
         <v>51.24678656800311</v>
@@ -7652,7 +7652,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
@@ -7673,25 +7673,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V44" t="n">
-        <v>2308.758267664335</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W44" t="n">
-        <v>2308.758267664335</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X44" t="n">
-        <v>1935.292509403255</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y44" t="n">
-        <v>1545.153177427444</v>
+        <v>781.4578466818741</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I45" t="n">
         <v>51.24678656800311</v>
@@ -7728,22 +7728,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L45" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M45" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N45" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O45" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P45" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q45" t="n">
         <v>2562.339328400155</v>
@@ -7764,7 +7764,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
         <v>1307.279776881661</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C46" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D46" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E46" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F46" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G46" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H46" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I46" t="n">
         <v>51.24678656800311</v>
@@ -7828,28 +7828,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R46" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1114.255484944676</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>825.137147448514</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>620.7172435647353</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W46" t="n">
-        <v>620.7172435647353</v>
+        <v>849.6638461315117</v>
       </c>
       <c r="X46" t="n">
-        <v>620.7172435647353</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="Y46" t="n">
-        <v>620.7172435647353</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
   </sheetData>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>152.8089368603738</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777609</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>27.86789631365775</v>
+        <v>13.39753511069846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>14.47036120295953</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,7 +8374,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>59.77437723312524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
@@ -8383,13 +8383,13 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>124.8483277329358</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>15.98080623542943</v>
+        <v>15.98080623542933</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8532,7 +8532,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>273.6534998179983</v>
+        <v>54.95314511566534</v>
       </c>
       <c r="N12" t="n">
-        <v>129.7511347056852</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>30.36925650589448</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>193.3273467878353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>30.36925650589444</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9556134883067102</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>35.91627445172469</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>30.36925650589467</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883069021</v>
       </c>
       <c r="K27" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>30.3692565058949</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,19 +10425,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>45.44676101130892</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>15.64270034434981</v>
       </c>
       <c r="N36" t="n">
-        <v>211.0329012241559</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>54.9531451156659</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N42" t="n">
-        <v>114.3555089013348</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>255.8421700460954</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3273467878353</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046876</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>189.5105044445883</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22562,7 +22562,7 @@
         <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>151.7212889301277</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -22601,16 +22601,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.6436733987104</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.1308911647224</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22638,10 +22638,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>60.98889288219262</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22680,10 +22680,10 @@
         <v>7.884010625681327</v>
       </c>
       <c r="U3" t="n">
-        <v>38.338181243771</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098444</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22720,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>82.69889417649296</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378017</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>124.4356264912015</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027108</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271723</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577487</v>
       </c>
     </row>
     <row r="5">
@@ -22787,19 +22787,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>155.8293285903474</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>355.6856650876926</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>214.2049178824446</v>
+        <v>413.0586309127797</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6386323440601</v>
+        <v>233.233498656056</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,10 +22829,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.902756580943731</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>157.8824903850722</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>213.2722729123207</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.3842256257185</v>
+        <v>187.384225625718</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22863,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>143.4101305992444</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>103.0149850401168</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.1428142768655</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.6391821499526</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.05664312418094</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.60893038465247</v>
       </c>
       <c r="S6" t="n">
-        <v>149.3806416140498</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3250534643339</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.862388470031</v>
+        <v>27.00867543969551</v>
       </c>
       <c r="V6" t="n">
-        <v>33.94687411909018</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>52.84127013058452</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>6.828982746968819</v>
       </c>
     </row>
     <row r="7">
@@ -22942,28 +22942,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1990670148971</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9843503927711</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.2773258852345</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>74.51395319589024</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>22.19051224255315</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,13 +22984,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.870594133973427</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.0316926108848</v>
       </c>
       <c r="S7" t="n">
-        <v>7.620087486425376</v>
+        <v>206.4738005167604</v>
       </c>
       <c r="T7" t="n">
         <v>223.6445383930705</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>87.66928530625592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,22 +23021,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>221.7715229433967</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.1621657402053</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>149.1202946442039</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H8" t="n">
-        <v>81.9144471239415</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
         <v>115.3066195468971</v>
@@ -23069,16 +23069,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,19 +23097,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>37.77142990091586</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.0227195864234</v>
@@ -23154,16 +23154,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>96.08462064159701</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23176,28 +23176,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>137.6203457467957</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>60.12381133471363</v>
       </c>
       <c r="J10" t="n">
         <v>15.07219909888209</v>
@@ -23227,7 +23227,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
         <v>223.2143458795659</v>
@@ -23236,10 +23236,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>276.1430340502179</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247047</v>
+        <v>2.552821105613475</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4.435602762755906</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I13" t="n">
         <v>104.7965952039006</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
         <v>194.6624603617375</v>
@@ -23470,19 +23470,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>276.1430340502184</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>299.9122037006539</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>112.6690427633401</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>276.1430340502179</v>
+        <v>15.48408607227668</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,16 +23789,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>27.58946917120771</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.5575724195736</v>
+        <v>18.12894860414988</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>359.4942890197512</v>
       </c>
       <c r="F20" t="n">
-        <v>282.5158624071235</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,19 +24020,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>46.91356563188748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I22" t="n">
-        <v>104.7965952039006</v>
+        <v>35.07708999715472</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>248.0922340074204</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>55.62612061053011</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24221,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247049</v>
@@ -24254,19 +24254,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>62.96786740298093</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>103.0154349816514</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>299.9122037006543</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>145.511293080423</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,10 +24497,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>92.67373081984061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>100.4154405304714</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>172.3191689709863</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24728,22 +24728,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>62.14179109122767</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>153.9727388353504</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.8034931298457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24914,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>296.4081067080813</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24965,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>162.7221982140615</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.7965952039006</v>
+        <v>3.368254903379579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>55.73584717546831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>268.0262645609833</v>
+        <v>306.4124686235597</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.55728874774262</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25391,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>284.0581876145777</v>
+        <v>64.90396167383619</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551288</v>
@@ -25597,25 +25597,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>42.94025756838093</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25628,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>160.7131979178089</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>13.63029219737859</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79.53822883171864</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25840,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>80.85095794181399</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>104.1206332995619</v>
+        <v>71.37259492370231</v>
       </c>
       <c r="H44" t="n">
         <v>301.0185525624054</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>49.76193847888709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>14.58439725144763</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>453255.2119999081</v>
+        <v>453255.2119999082</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>462430.0480428646</v>
+        <v>462430.0480428652</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514033.3182394485</v>
+        <v>514033.3182394486</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>768896.6821529666</v>
+        <v>768896.6821529667</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>768896.6821529667</v>
+        <v>768896.6821529666</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>768896.6821529669</v>
+        <v>768896.6821529667</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>768896.6821529666</v>
+        <v>768896.6821529667</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>768896.6821529667</v>
+        <v>768896.6821529666</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>768896.6821529666</v>
+        <v>768896.6821529667</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>189463.6972628638</v>
       </c>
       <c r="C2" t="n">
-        <v>193181.0003503789</v>
+        <v>193181.0003503791</v>
       </c>
       <c r="D2" t="n">
-        <v>214164.910256968</v>
+        <v>214164.9102569679</v>
       </c>
       <c r="E2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190237</v>
       </c>
       <c r="F2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190237</v>
       </c>
       <c r="G2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190241</v>
       </c>
       <c r="H2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="I2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="I2" t="n">
-        <v>321270.212019024</v>
-      </c>
       <c r="J2" t="n">
-        <v>321270.2120190239</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="K2" t="n">
         <v>321270.2120190239</v>
       </c>
       <c r="L2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="M2" t="n">
+        <v>321270.2120190239</v>
+      </c>
+      <c r="N2" t="n">
         <v>321270.2120190238</v>
       </c>
-      <c r="M2" t="n">
-        <v>321270.2120190238</v>
-      </c>
-      <c r="N2" t="n">
-        <v>321270.212019024</v>
-      </c>
       <c r="O2" t="n">
-        <v>321270.2120190241</v>
+        <v>321270.2120190239</v>
       </c>
       <c r="P2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190239</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>12539.59038791419</v>
+        <v>12539.59038791475</v>
       </c>
       <c r="D3" t="n">
-        <v>67964.10168092136</v>
+        <v>67964.10168092082</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.271430143</v>
+        <v>369622.2714301429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.651701151989983e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>2915.497097369911</v>
+        <v>2915.497097369972</v>
       </c>
       <c r="L3" t="n">
-        <v>16415.52451890063</v>
+        <v>16415.52451890048</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676275</v>
+        <v>93917.74874676272</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11581.1175522765</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="C4" t="n">
-        <v>12103.06936427355</v>
+        <v>11846.81685719476</v>
       </c>
       <c r="D4" t="n">
-        <v>14858.0925329099</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="E4" t="n">
-        <v>20210.89527881357</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="F4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="G4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="H4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="I4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="J4" t="n">
-        <v>20210.89527881358</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="K4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="L4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570975</v>
       </c>
       <c r="M4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570975</v>
       </c>
       <c r="N4" t="n">
-        <v>20210.8952788136</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="O4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570975</v>
       </c>
       <c r="P4" t="n">
-        <v>20210.89527881359</v>
+        <v>19788.00270570974</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>57887.13483016699</v>
+        <v>57887.13483016703</v>
       </c>
       <c r="D5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="G5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="H5" t="n">
         <v>59310.17243984471</v>
@@ -26497,7 +26497,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984471</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470460.1232218717</v>
+        <v>-470214.8704865286</v>
       </c>
       <c r="C6" t="n">
-        <v>110651.2057680241</v>
+        <v>110907.4582751025</v>
       </c>
       <c r="D6" t="n">
-        <v>68294.91283887059</v>
+        <v>68609.13117464811</v>
       </c>
       <c r="E6" t="n">
-        <v>-127873.1271297773</v>
+        <v>-127450.2345566736</v>
       </c>
       <c r="F6" t="n">
-        <v>241749.1443003659</v>
+        <v>242172.0368734693</v>
       </c>
       <c r="G6" t="n">
-        <v>241749.1443003656</v>
+        <v>242172.0368734694</v>
       </c>
       <c r="H6" t="n">
-        <v>241749.1443003655</v>
+        <v>242172.0368734696</v>
       </c>
       <c r="I6" t="n">
-        <v>241749.1443003657</v>
+        <v>242172.0368734694</v>
       </c>
       <c r="J6" t="n">
-        <v>192684.199571821</v>
+        <v>193107.0921449247</v>
       </c>
       <c r="K6" t="n">
-        <v>238833.6472029957</v>
+        <v>239256.5397760995</v>
       </c>
       <c r="L6" t="n">
-        <v>225333.6197814649</v>
+        <v>225756.512354569</v>
       </c>
       <c r="M6" t="n">
-        <v>147831.3955536027</v>
+        <v>148254.2881267067</v>
       </c>
       <c r="N6" t="n">
-        <v>241749.1443003656</v>
+        <v>242172.0368734694</v>
       </c>
       <c r="O6" t="n">
-        <v>241749.1443003658</v>
+        <v>242172.0368734694</v>
       </c>
       <c r="P6" t="n">
-        <v>241749.1443003656</v>
+        <v>242172.0368734695</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>558.2215173359</v>
+        <v>558.2215173359004</v>
       </c>
       <c r="D3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="F3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="G3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="H3" t="n">
         <v>934.0648921175392</v>
@@ -26790,7 +26790,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>198.8537130303351</v>
+        <v>198.8537130303355</v>
       </c>
       <c r="D4" t="n">
         <v>263.7138800015061</v>
@@ -26799,10 +26799,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="G4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="H4" t="n">
         <v>640.5848321000389</v>
@@ -26817,7 +26817,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="M4" t="n">
         <v>640.5848321000389</v>
@@ -26960,19 +26960,19 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>9.751576422995413</v>
+        <v>9.751576422995868</v>
       </c>
       <c r="D3" t="n">
-        <v>55.83349643357826</v>
+        <v>55.83349643357781</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.139307860380569e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>11.32812586401515</v>
+        <v>11.32812586401562</v>
       </c>
       <c r="D4" t="n">
-        <v>64.86016697117107</v>
+        <v>64.8601669711706</v>
       </c>
       <c r="E4" t="n">
         <v>376.8709520985327</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>11.32812586401538</v>
+        <v>11.32812586401562</v>
       </c>
       <c r="L4" t="n">
-        <v>64.86016697117095</v>
+        <v>64.86016697117037</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>11.32812586401515</v>
+        <v>11.32812586401562</v>
       </c>
       <c r="L4" t="n">
-        <v>64.86016697117107</v>
+        <v>64.8601669711706</v>
       </c>
       <c r="M4" t="n">
         <v>376.8709520985327</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.244106602355375</v>
+        <v>2.244106602355377</v>
       </c>
       <c r="H5" t="n">
-        <v>22.98245674137199</v>
+        <v>22.98245674137201</v>
       </c>
       <c r="I5" t="n">
-        <v>86.51591978730569</v>
+        <v>86.51591978730575</v>
       </c>
       <c r="J5" t="n">
-        <v>190.4657427416597</v>
+        <v>190.4657427416599</v>
       </c>
       <c r="K5" t="n">
-        <v>285.4587752193628</v>
+        <v>285.458775219363</v>
       </c>
       <c r="L5" t="n">
-        <v>354.1368526511962</v>
+        <v>354.1368526511965</v>
       </c>
       <c r="M5" t="n">
-        <v>394.0454834408336</v>
+        <v>394.0454834408339</v>
       </c>
       <c r="N5" t="n">
-        <v>400.4215513247758</v>
+        <v>400.4215513247761</v>
       </c>
       <c r="O5" t="n">
-        <v>378.1067162976045</v>
+        <v>378.1067162976048</v>
       </c>
       <c r="P5" t="n">
-        <v>322.7053345519561</v>
+        <v>322.7053345519564</v>
       </c>
       <c r="Q5" t="n">
-        <v>242.3382668551042</v>
+        <v>242.3382668551044</v>
       </c>
       <c r="R5" t="n">
-        <v>140.966361360206</v>
+        <v>140.9663613602061</v>
       </c>
       <c r="S5" t="n">
-        <v>51.13757920117316</v>
+        <v>51.1375792011732</v>
       </c>
       <c r="T5" t="n">
-        <v>9.82357665181066</v>
+        <v>9.823576651810667</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17952852818843</v>
+        <v>0.1795285281884301</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.200702886345143</v>
+        <v>1.200702886345144</v>
       </c>
       <c r="H6" t="n">
-        <v>11.59626208654389</v>
+        <v>11.5962620865439</v>
       </c>
       <c r="I6" t="n">
-        <v>41.33998972723411</v>
+        <v>41.33998972723414</v>
       </c>
       <c r="J6" t="n">
         <v>113.4400915559682</v>
       </c>
       <c r="K6" t="n">
-        <v>193.8871849410928</v>
+        <v>193.8871849410929</v>
       </c>
       <c r="L6" t="n">
-        <v>260.7052473180541</v>
+        <v>260.7052473180543</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2307269480655</v>
+        <v>304.2307269480657</v>
       </c>
       <c r="N6" t="n">
-        <v>312.2828090235994</v>
+        <v>312.2828090235997</v>
       </c>
       <c r="O6" t="n">
-        <v>285.6777608577412</v>
+        <v>285.6777608577414</v>
       </c>
       <c r="P6" t="n">
-        <v>229.2815888846266</v>
+        <v>229.2815888846268</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.2686701938117</v>
+        <v>153.2686701938118</v>
       </c>
       <c r="R6" t="n">
-        <v>74.54890376799059</v>
+        <v>74.54890376799067</v>
       </c>
       <c r="S6" t="n">
-        <v>22.30252948978806</v>
+        <v>22.30252948978808</v>
       </c>
       <c r="T6" t="n">
-        <v>4.83967523048766</v>
+        <v>4.839675230487663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07899361094375947</v>
+        <v>0.07899361094375953</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.006628965687688</v>
+        <v>1.006628965687689</v>
       </c>
       <c r="H7" t="n">
-        <v>8.94984662220509</v>
+        <v>8.949846622205097</v>
       </c>
       <c r="I7" t="n">
-        <v>30.2720783499534</v>
+        <v>30.27207834995343</v>
       </c>
       <c r="J7" t="n">
-        <v>71.16866787411956</v>
+        <v>71.16866787411962</v>
       </c>
       <c r="K7" t="n">
-        <v>116.9519834680787</v>
+        <v>116.9519834680788</v>
       </c>
       <c r="L7" t="n">
-        <v>149.6582736805133</v>
+        <v>149.6582736805134</v>
       </c>
       <c r="M7" t="n">
-        <v>157.7936659577528</v>
+        <v>157.7936659577529</v>
       </c>
       <c r="N7" t="n">
-        <v>154.0416852674625</v>
+        <v>154.0416852674626</v>
       </c>
       <c r="O7" t="n">
-        <v>142.2824287137471</v>
+        <v>142.2824287137473</v>
       </c>
       <c r="P7" t="n">
-        <v>121.7471978137182</v>
+        <v>121.7471978137183</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.2914491177209</v>
+        <v>84.29144911772096</v>
       </c>
       <c r="R7" t="n">
-        <v>45.2616987662846</v>
+        <v>45.26169876628463</v>
       </c>
       <c r="S7" t="n">
-        <v>17.5427975202118</v>
+        <v>17.54279752021181</v>
       </c>
       <c r="T7" t="n">
-        <v>4.301051035211031</v>
+        <v>4.301051035211034</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05490703449205579</v>
+        <v>0.05490703449205584</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I11" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L11" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U11" t="n">
         <v>0.3004027793744847</v>
@@ -31832,10 +31832,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J12" t="n">
         <v>189.8178475575841</v>
@@ -31844,34 +31844,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J13" t="n">
         <v>119.0856174753787</v>
@@ -31929,10 +31929,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P13" t="n">
         <v>203.7180217169137</v>
@@ -31941,16 +31941,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H17" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I17" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J17" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K17" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L17" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M17" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N17" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O17" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P17" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q17" t="n">
         <v>405.5015080147052</v>
@@ -32260,13 +32260,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S17" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T17" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H18" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I18" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J18" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L18" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M18" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N18" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O18" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P18" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q18" t="n">
         <v>256.4624964168761</v>
@@ -32339,10 +32339,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S18" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T18" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U18" t="n">
         <v>0.1321789941675764</v>
@@ -32388,19 +32388,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J19" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L19" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N19" t="n">
         <v>257.7559726067959</v>
@@ -32415,16 +32415,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S19" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T19" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33910,13 +33910,13 @@
         <v>632.6811099166595</v>
       </c>
       <c r="P38" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q38" t="n">
         <v>405.5015080147052</v>
       </c>
       <c r="R38" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S38" t="n">
         <v>85.56785418745098</v>
@@ -34132,7 +34132,7 @@
         <v>318.70387994919</v>
       </c>
       <c r="K41" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L41" t="n">
         <v>592.572645076738</v>
@@ -34147,7 +34147,7 @@
         <v>632.6811099166595</v>
       </c>
       <c r="P41" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q41" t="n">
         <v>405.5015080147052</v>
@@ -34372,10 +34372,10 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N44" t="n">
         <v>670.0202366342224</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>164.9681526068346</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
         <v>187.5255871663199</v>
@@ -34872,7 +34872,7 @@
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068223</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>9.419838214973396</v>
+        <v>9.419838214973566</v>
       </c>
       <c r="K5" t="n">
-        <v>65.36892417438224</v>
+        <v>65.36892417438247</v>
       </c>
       <c r="L5" t="n">
-        <v>118.370437681209</v>
+        <v>118.3704376812092</v>
       </c>
       <c r="M5" t="n">
-        <v>163.6992502135608</v>
+        <v>163.6992502135612</v>
       </c>
       <c r="N5" t="n">
-        <v>171.0084877281849</v>
+        <v>171.0084877281852</v>
       </c>
       <c r="O5" t="n">
-        <v>148.0085048759178</v>
+        <v>148.0085048759181</v>
       </c>
       <c r="P5" t="n">
-        <v>91.47233879668659</v>
+        <v>91.47233879668687</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.03257698065471</v>
+        <v>20.03257698065491</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>14.47036120295921</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>56.04574596673376</v>
+        <v>56.0457459667339</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1508675381799</v>
+        <v>122.1508675381801</v>
       </c>
       <c r="M6" t="n">
-        <v>162.0966930260471</v>
+        <v>162.0966930260474</v>
       </c>
       <c r="N6" t="n">
-        <v>180.9410969402661</v>
+        <v>180.9410969402664</v>
       </c>
       <c r="O6" t="n">
-        <v>143.0815164132968</v>
+        <v>143.081516413297</v>
       </c>
       <c r="P6" t="n">
-        <v>95.30718147029631</v>
+        <v>95.30718147029651</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.28689610779014</v>
+        <v>27.75725731074979</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>47.71310253066854</v>
+        <v>94.68249164219593</v>
       </c>
       <c r="L7" t="n">
-        <v>177.2482989408294</v>
+        <v>177.2482989408295</v>
       </c>
       <c r="M7" t="n">
-        <v>197.3775429195934</v>
+        <v>197.3775429195935</v>
       </c>
       <c r="N7" t="n">
-        <v>198.1738576466911</v>
+        <v>151.2044685351651</v>
       </c>
       <c r="O7" t="n">
-        <v>166.8675566277868</v>
+        <v>166.8675566277869</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>75.43840481763047</v>
+        <v>80.7012922172247</v>
       </c>
       <c r="L9" t="n">
         <v>148.2266905659562</v>
@@ -35264,13 +35264,13 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P9" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K12" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M12" t="n">
-        <v>640.5848321000389</v>
+        <v>421.8844773977058</v>
       </c>
       <c r="N12" t="n">
-        <v>520.9482342985592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q12" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L13" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O13" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.34947739681188</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L15" t="n">
         <v>297.6803606378501</v>
@@ -35884,28 +35884,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L17" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M17" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N17" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O17" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P17" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q17" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R17" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K18" t="n">
-        <v>379.9148430313201</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L18" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437447</v>
       </c>
       <c r="M18" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N18" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O18" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P18" t="n">
         <v>249.6795291235323</v>
@@ -35984,7 +35984,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K19" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L19" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M19" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N19" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O19" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P19" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K21" t="n">
-        <v>187.5431097317915</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M21" t="n">
-        <v>366.9313322820405</v>
+        <v>402.8476067337652</v>
       </c>
       <c r="N21" t="n">
         <v>391.1970995928739</v>
@@ -36215,13 +36215,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q21" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378502</v>
@@ -36452,7 +36452,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
         <v>326.5580100667037</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922432</v>
       </c>
       <c r="K27" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
@@ -36689,7 +36689,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q27" t="n">
         <v>326.5580100667037</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L30" t="n">
-        <v>328.0496171437451</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820405</v>
@@ -36926,10 +36926,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>249.6795291235323</v>
+        <v>364.0350380248671</v>
       </c>
       <c r="Q30" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R30" t="n">
         <v>24.58388860977092</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K33" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378502</v>
+        <v>343.1271216491591</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820405</v>
       </c>
       <c r="N33" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O33" t="n">
         <v>335.424681996123</v>
@@ -37385,22 +37385,22 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
-        <v>366.9313322820405</v>
+        <v>382.5740326263903</v>
       </c>
       <c r="N36" t="n">
-        <v>602.2300008170298</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O36" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
         <v>116.4807223308546</v>
@@ -37558,13 +37558,13 @@
         <v>402.5828984949727</v>
       </c>
       <c r="P38" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q38" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R38" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
@@ -37637,7 +37637,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>304.6326742391982</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
         <v>326.5580100667037</v>
@@ -37780,7 +37780,7 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K41" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L41" t="n">
         <v>356.8062301067508</v>
@@ -37795,7 +37795,7 @@
         <v>402.5828984949727</v>
       </c>
       <c r="P41" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q41" t="n">
         <v>183.1958181402557</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K42" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M42" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N42" t="n">
-        <v>505.5526084942086</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422184</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235323</v>
@@ -37880,7 +37880,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>257.5646495407337</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N44" t="n">
         <v>440.6071730376315</v>
@@ -38096,7 +38096,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>379.9148430313201</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
